--- a/src/assets/data/portraits_content.xlsx
+++ b/src/assets/data/portraits_content.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="364">
   <si>
     <t>id</t>
   </si>
@@ -65,6 +65,9 @@
     <t>path</t>
   </si>
   <si>
+    <t>commentaire</t>
+  </si>
+  <si>
     <t>Début de carrière</t>
   </si>
   <si>
@@ -119,7 +122,13 @@
     <t>OUI</t>
   </si>
   <si>
-    <t>color_i</t>
+    <t>#5356a5</t>
+  </si>
+  <si>
+    <t>M73.19,165.46c12.33,9.83,24.75,13,39.79,16.68,3,.72,6,1.6,8.4,3.56s3.85,5.28,2.81,8.16c-1.41,3.89-6.25,5-10.35,5.59-13.83,1.92-27.52,3-40.61,8.06A116,116,0,0,0,42,225.65c-18.57,15-32.7,35.79-38.67,59-11.19,43.49,6.78,93,43.25,119.17s89.11,27.39,126.74,2.9S231.13,333.63,222,289.67c-2.21-10.58-6-21.31-4-31.95,3.84-21.18,28.23-32.13,49.73-33s43.28,4.75,64.39.58c32.21-6.37,57.59-37.71,57.12-70.54S362.39,91.36,330,85.93c-17.15-2.88-33.56,1.66-48.29,10.21-13.78,8-21.41,18.74-28.17,33.08-6.38,13.53-13.08,28.2-25.93,36.82-3.22,2.16-7.29,3.39-11,2.39s-6.89-4.65-6.48-8.51c.23-2.14,1.45-4,2.63-5.84,11-16.74,20.45-34.44,20.45-55.13,2.11-48.68-33.94-90.3-81.58-97.8a91,91,0,0,0-29.78.16C75.32,9.45,38.31,55.66,41.25,102.88A88.47,88.47,0,0,0,64.4,157.33,81.48,81.48,0,0,0,73.19,165.46Z</t>
+  </si>
+  <si>
+    <t>Réponse individuelle à vectoriser</t>
   </si>
   <si>
     <t>Palmarès</t>
@@ -137,6 +146,9 @@
     <t>#000000</t>
   </si>
   <si>
+    <t>M345.34,354.88a50.27,50.27,0,0,0-1.93-6.32c-3.43-9.07-10-17.91-18.27-23.1-7.05-4.4-16.92-4.13-19.31-13.63-1.2-4.79,15.32-9.41,18.44-11.49,7.56-5,13-14,15.06-22.71,3.75-16.05-3.42-31.55-15.54-41.93-17.66-15.13-45.55-22.9-71.47-18.2-14,2.55-27,8.65-29.13,5.06-1.2-2,6.71-17.43,7.67-20.08,3-8.4,5.87-16.87,8.41-25.43,5.32-17.93,9.59-36.39,10.8-55.1,2.16-33.53-13-79.75-54.12-77.52-17.89,1-31,12.9-42.52,25.5-12,13.17-14.88,24-20.33,23.26-7.35-1-5.66-21-15.65-43.31C107.11,26.84,83-.49,58.65,0,37.37.44,23,20.63,14.92,38-3.65,77.89-3.61,124.06,8,165.86c4.79,17.2,10.79,34.67,20.86,49.57,5,7.43,11.12,14.32,18.75,19.16,8.23,5.22,17.82,5.32,25,12.16,2.54,26.34-3.67,54.34,18.44,75.07C108.7,337.17,126,347,150.7,331.06c12.65-11.1,13.75-12.39,26.38-.48,9.93,7.16,21.73,7.94,33.48,8.72,12.53.83,18.93-1.11,20.59,2.14,1.89,3.71-6.85,16.51-7.44,21.3a52.36,52.36,0,0,0,5.09,29.65c12.66,25.17,47.66,38.12,74.13,30C330.92,413.89,352.12,384,345.34,354.88ZM83.82,175c-1.72,19.26-20.53,13.49-27.15-.17C38.26,148.55,27.14,64.55,48,38.71c10.07-7.44,22.3,5.45,26.17,13.83,4.19,9.1,4.91,19.3,6.42,29.07C85.57,112.5,88.45,143.85,83.82,175Zm101.65,8.87c-5.71,17.6-48.3,134.29-70.48,117.41-24.47-19,33.64-142.5,49-165.9,6.1-12.16,22-41.85,36-21.8C207.21,127.39,189.38,167.14,185.47,183.86ZM255.4,288.6c-13.55,6.67-28.56,11.6-43.75,12-24.87-.52-10.32-22,3.73-27.54,20.54-10.2,46.94-22.06,70.12-19.44C301.21,261.85,263,285.15,255.4,288.6ZM296.85,376c-25.53,32.31-38.46,9.44-20.07-18C293.34,335.46,312.39,356.36,296.85,376Z</t>
+  </si>
+  <si>
     <t>Ville souvenir</t>
   </si>
   <si>
@@ -156,6 +168,9 @@
   </si>
   <si>
     <t>M82.24,146c-5.38-60.77,55.4-41,59.18,19.07C202.56,436.2-11.38,444.48.48,169.86c-.54-11,2.23-25.36,9.67-34.74a16.58,16.58,0,0,1,28.49,4.3c4,10.29,4.86,23.89,6.1,32.12,6.09,37.35,9.39,76.12,24.54,111.12,9,19.29,33.83,29.26,37.53.88,1.18-5.51.4-8.36.74-14a78.31,78.31,0,0,0,0-13C107.62,217.54,93,183.18,82.24,146Z</t>
+  </si>
+  <si>
+    <t>Plusieurs paths de couleurs différentes</t>
   </si>
   <si>
     <t>Tokyo</t>
@@ -284,9 +299,15 @@
     <t>color</t>
   </si>
   <si>
+    <t>color_i</t>
+  </si>
+  <si>
     <t>*voir Q2</t>
   </si>
   <si>
+    <t>Indique la couleur de la forme de la Q2</t>
+  </si>
+  <si>
     <t>Dessin de carrière</t>
   </si>
   <si>
@@ -452,12 +473,24 @@
     <t>fullempty_full</t>
   </si>
   <si>
+    <t xml:space="preserve">#1abc9c </t>
+  </si>
+  <si>
+    <t>M310,77.52c-3.54-33.51-36-57.5-65.27-51-12.17,2.65-23.72,9.84-36.1,9.09-43.75-9.93-42.2-44.72-94.19-14.76C85,31.73,66.64,17.37,43.55.32-49.9-9.51,18.09,208.15,142.9,125c17.08-3.45,31,17.68,48.4,18.38,18.86.77,32.39-22.31,51.13-24.8,12.85-1.71,25.42,6.71,38.31,5.43C300.46,122,313.16,98.38,310,77.52Z</t>
+  </si>
+  <si>
+    <t>Pas la bonne forme, à modifier</t>
+  </si>
+  <si>
     <t>Le verre à moitié vide</t>
   </si>
   <si>
     <t>fullempty_empty</t>
   </si>
   <si>
+    <t>M328.49,93.44C314,38.07,282,71,248.69,74.31c-11.77-.3-23.2-8-29.2-19.77C207.57,15.15,192.37-4.12,153.12.74c-23.32,4.38-44.53,21.89-55.71,46-1.3,2.8-2.73,5.94-5.34,6.93-19.35-2.6-39.65-13.75-58.93-5.57C-.75,60.66-13.18,124.31,17.56,149.29c48,30.7,110-40.95,213.54-.69C286.36,168.08,346.54,195.91,328.49,93.44Z</t>
+  </si>
+  <si>
     <t>Intérêt</t>
   </si>
   <si>
@@ -509,9 +542,6 @@
     <t>senses_toucher</t>
   </si>
   <si>
-    <t>#5356a5</t>
-  </si>
-  <si>
     <t>M123,0c6.71-.13,13.28,1.82,18.15,6.42,8.59,8.11,9.32,22,4.92,33s-12.93,19.67-21.24,28.06l-51.47,52c-4.26,4.29-8.61,8.74-10.9,14.34s-2,12.69,2.3,16.94,11.25,4.46,16.84,2.3,10.15-6.29,14.73-10.15a231.35,231.35,0,0,1,73.82-41.83c10.51-3.61,21.7-6.48,32.67-4.67s21.65,9.37,24,20.24c2,9.12-2.24,18.74-8.82,25.38s-15.21,10.77-23.82,14.38a303.88,303.88,0,0,1-85.9,21.94c-7.26.76-14.81,1.33-21.16,4.91s-11.11,11.23-8.83,18.16c1.75,5.32,7.17,8.77,12.68,9.79s11.17.05,16.69-.92L183.48,197c15-2.63,30.68-5.24,45.32-1s27.82,17.67,26.48,32.87c-1.22,13.88-14.13,24.46-27.71,27.59s-27.76.48-41.45-2.18L115,240.47c-5.61-1.09-11.42-2.18-17-.9s-10.86,5.62-11.37,11.32c-.83,9.48,10.46,14.78,19.64,17.27L190.42,291c10.6,2.87,21.5,5.9,30.16,12.65s14.58,18.25,11.51,28.78c-3,10.28-13.77,16.79-24.41,17.86s-21.23-2.26-31.24-6c-30.69-11.57-59.45-27.65-87.89-44C65.26,286.88,41.65,272.92,24,252.64,11,237.64,1.81,218.78.37,198.8s1.16-32.26,9.94-50.5A760.5,760.5,0,0,1,81.21,29.86C88.41,20,96.19,10,107,4.23A35.88,35.88,0,0,1,123,0Z</t>
   </si>
   <si>
@@ -566,6 +596,12 @@
     <t>element_air</t>
   </si>
   <si>
+    <t>#6acde8</t>
+  </si>
+  <si>
+    <t>M207.1,229.91c-25.53.86-51.16-2.46-76.77-2.76-29.71-.33-61,4-84.74,21.87-4.4,3.3-9.53,7.26-14.79,5.67-16.82-5.08,7.26-26.49,12.41-30.5C55.88,214.32,71,207.77,86.54,204c23.21-5.7,47.41-5.7,71.3-5q22.08.66,44.12,2.11c15.38,1,31.49,2.19,45.56-4.09s24.89-22.85,19.19-37.17c-4.85-12.18-21.65-17.72-32.8-10.81-5.54,3.44-11.73,9.52-17.32,6.19-3.24-1.93-4.14-6.45-3-10s3.93-6.4,6.72-8.92c8.85-8,19.25-14.51,30.82-17.28s24.4-1.46,34.33,5.1c7.05,4.66,12.31,11.69,15.83,19.37,3.69,8,5.59,17,4.37,25.78-1.08,7.74-4.54,15-9,21.38C279.61,215,249,226.36,219.38,229.14Q213.25,229.71,207.1,229.91Z"/&gt;&lt;path class="cls-1" d="M214.09,5.37c20,.89,37.83,18,42.3,37.88,4.82,21.37-3.48,44.12-17.46,61S205.86,132.88,186.45,143c-54.22,28.3-115.33,47-158.82,90-2.52,2.48-5.13,5.14-8.54,6.07a10.12,10.12,0,0,1-11.52-5.46c-3.93-8.84,9.6-23.16,15.23-28.82,9.53-9.57,21.23-16.72,32.86-23.42a847.35,847.35,0,0,1,82-41.49c15.82-7,31.94-13.48,46.43-22.89S211.5,95,218,79c3.09-7.57,4.68-16,3.05-24s-6.87-15.53-14.44-18.6-17.35-.83-21.82,6c-1.88,2.87-2.76,6.27-4.47,9.24s-4.74,5.64-8.15,5.28c-5.6-.58-7.22-8.13-6.11-13.65,2.32-11.56,10-21.58,19.54-28.47,7-5.07,15.23-8.67,23.86-9.37A35.24,35.24,0,0,1,214.09,5.37Z"/&gt;&lt;path class="cls-1" d="M150.48,60.93c-.47,22.62-11.61,44.55-26.93,61.5a137.52,137.52,0,0,1-40.69,30.84C61,164.14,34.56,170.5,21.45,191.1c-2.27,3.58-4.39,7.77-8.37,9.19C8.31,202,2.84,198.49,1,193.78S.13,183.69,2.05,179C7.1,166.74,18,157.73,29.53,151.26s24.21-10.89,35.92-17.13c14.41-7.67,27.54-18.27,36.37-32s13.05-30.78,9.67-46.76C108.66,42,98,28.6,84.43,29.45c-8.77.55-16.15,6.9-21.35,14-1.57,2.13-3.07,4.42-5.32,5.82A9.29,9.29,0,0,1,45.6,46.64c-6.46-9.62,10-26.4,16.45-32C72.86,5.14,87-1,101.55.14c25.69,2,45.91,26.47,48.57,52.1A70.25,70.25,0,0,1,150.48,60.93Z</t>
+  </si>
+  <si>
     <t>Terre</t>
   </si>
   <si>
@@ -665,18 +701,30 @@
     <t>strength_myop_technique</t>
   </si>
   <si>
+    <t>#483f99</t>
+  </si>
+  <si>
+    <t>M181,44.25C177.89,21.7,157.84,8.9,137.53,6.54,107.22,2.18,34.27-8.55,11.62,13.06c-18,19.7-15.27,71,9.69,80.44,8.48,3.2,17.73,0,26.37,2.34C58,110.6,27.26,173.36,25.44,195.39c-4.26,15.48.66,36.25,19.81,32.55C60,225.55,73.15,212.43,88,213c10.48.42,19.92,7.61,29.47,13.11,34.48,21.57,48.77-15.92,42.19-45.22a127,127,0,0,0-16-44.38C136,125,125.81,108.28,134.12,94.75,163.24,110.46,188.81,72.62,181,44.25Z</t>
+  </si>
+  <si>
     <t>Le physique</t>
   </si>
   <si>
     <t>strength_myop_physique</t>
   </si>
   <si>
+    <t>M167.16,66.57C164.51,29.62,130.2,7,96.47.94,34.82-9.23-5.88,65.44.69,119.44c8.08,36-1.85,120.89,29.4,141.29,23.29,8.12,50.12,2.34,72.54-6.41,26.12-8,29.54-42.87,6.88-57.13-4.62-3.07-10-4.84-14.44-8.17s-16.53-16.14-6.37-18.79C141.36,158,172.4,122,167.16,66.57Z</t>
+  </si>
+  <si>
     <t>La tactique</t>
   </si>
   <si>
     <t>strength_myop_tactique</t>
   </si>
   <si>
+    <t>M155.08,123.34C153.6,112.2,146.8,100.89,136,97.05c-5-1.77-10.68-1.94-14.91-5.11-13.74-12.83-.25-46.59-23-73.1C77.66-8.42,37.19-5.92,22.19,25.18,4,65.26,4.81,111.5,1.33,154.71-1.38,203-4.4,265.5,41.22,295.43c48.34,32.39,133.52-14.08,108-74.8-7.8-16.77-26.82-28.25-45.09-25.34-3.16.5-6.64,1.34-9.36-.35-9.59-9.11,5.27-19.61,15.24-18.21C146.31,185.15,157.76,154.4,155.08,123.34Z</t>
+  </si>
+  <si>
     <t>Podium(s)</t>
   </si>
   <si>
@@ -692,6 +740,9 @@
     <t>podium_fashion</t>
   </si>
   <si>
+    <t>#f26522</t>
+  </si>
+  <si>
     <t>Jeux Olympiques</t>
   </si>
   <si>
@@ -713,10 +764,16 @@
     <t>outfit_gala</t>
   </si>
   <si>
+    <t>M183.39,148.44C153.24,128.3,148,109.85,168.17,78.61c10.25-19.36,24.3-39.78,25.74-62.46C192.43,0,180-.94,170,9.7,160.2,20,141,26.84,127.05,26,110.85,25,101.86,13.45,88.59,6,74.76-1.69,39.73-4.1,30,11.64,25.82,18.39,28.62,28.17,31,35c6.07,17.23,20.46,33,22.43,51.5.79,11.41-7.85,20.22-15.39,27.37a204.06,204.06,0,0,0-23.72,26.55c-5.92,8-11.36,17.23-13.68,27a25.35,25.35,0,0,0,1.82,16.69c1.85,3.61,5.43,6.6,9.49,6.65a13.36,13.36,0,0,0,6.33-1.83c8-4.24,14.51-11.13,22.22-16,8.22-5.14,17.37-8.71,27.2-8.49,21.47.48,34.66,13,52.45,22.28,19.11,9.91,55.88,13.31,73.16-.56C202.17,174.52,194.29,156.47,183.39,148.44Z</t>
+  </si>
+  <si>
     <t>Pyjama</t>
   </si>
   <si>
     <t>outfit_pyjama</t>
+  </si>
+  <si>
+    <t>M187.75,62.15c17.94-66.3-45-59.24-89.63-61.54C38-4.74,27.07,25.32,23.67,79.23c-5.11,32.15-46.86,77.28-5.72,100.4,13.57,7.64,29.52,7,44.68,6.12,26.72-4,80.56,2.74,99.19-14.46,17.83-18.24,10.91-48.27,14.88-71.51C178.91,86.79,184.32,74.8,187.75,62.15Z</t>
   </si>
   <si>
     <t>Athlete</t>
@@ -1184,7 +1241,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1206,17 +1263,18 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -1461,6 +1519,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="5" max="5" width="31.75"/>
+    <col customWidth="1" min="6" max="6" width="20.75"/>
     <col customWidth="1" min="7" max="7" width="27.13"/>
     <col customWidth="1" min="9" max="9" width="27.38"/>
     <col customWidth="1" min="16" max="16" width="20.63"/>
@@ -1512,11 +1571,14 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -1524,41 +1586,41 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -1566,41 +1628,41 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -1608,41 +1670,41 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1650,154 +1712,167 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>3.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>4.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -1805,52 +1880,52 @@
         <v>4.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -1858,52 +1933,52 @@
         <v>4.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1911,52 +1986,52 @@
         <v>5.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -1964,52 +2039,52 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -2017,52 +2092,52 @@
         <v>5.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -2070,152 +2145,158 @@
         <v>6.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="6"/>
+      <c r="R13" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
         <v>7.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
         <v>8.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -2223,52 +2304,52 @@
         <v>8.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
@@ -2276,52 +2357,52 @@
         <v>8.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -2329,94 +2410,96 @@
         <v>9.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="19">
       <c r="A19" s="2">
         <v>10.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20">
@@ -2424,52 +2507,52 @@
         <v>10.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="I20" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21">
@@ -2477,293 +2560,314 @@
         <v>11.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
     </row>
     <row r="22">
       <c r="A22" s="2">
         <v>11.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
     </row>
     <row r="23">
       <c r="A23" s="2">
         <v>11.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="24">
       <c r="A24" s="2">
         <v>12.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
     </row>
     <row r="25">
       <c r="A25" s="2">
         <v>12.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
     </row>
     <row r="26">
       <c r="A26" s="2">
         <v>12.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="2">
         <v>13.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="28">
@@ -2771,41 +2875,50 @@
         <v>13.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="29">
@@ -2813,101 +2926,104 @@
         <v>14.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
+      <c r="R29" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
         <v>15.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31">
@@ -2915,52 +3031,52 @@
         <v>15.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32">
@@ -2968,52 +3084,52 @@
         <v>15.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33">
@@ -3021,46 +3137,46 @@
         <v>15.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
@@ -3070,46 +3186,46 @@
         <v>15.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
@@ -3119,52 +3235,52 @@
         <v>16.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36">
@@ -3172,52 +3288,52 @@
         <v>16.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37">
@@ -3225,101 +3341,105 @@
         <v>16.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q37" s="12" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
         <v>16.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39">
@@ -3327,52 +3447,52 @@
         <v>17.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40">
@@ -3380,52 +3500,52 @@
         <v>17.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41">
@@ -3433,52 +3553,52 @@
         <v>17.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42">
@@ -3486,179 +3606,192 @@
         <v>18.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L42" s="3"/>
       <c r="N42" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
     </row>
     <row r="43">
       <c r="A43" s="2">
         <v>18.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L43" s="3"/>
       <c r="N43" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
     </row>
     <row r="44">
       <c r="A44" s="2">
         <v>19.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
+      <c r="R44" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
         <v>20.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="46">
@@ -3666,46 +3799,52 @@
         <v>20.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="47">
@@ -3713,46 +3852,52 @@
         <v>20.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="48">
@@ -3760,46 +3905,52 @@
         <v>21.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="49">
@@ -3807,46 +3958,52 @@
         <v>21.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="50">
@@ -3854,46 +4011,52 @@
         <v>22.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="51">
@@ -3901,53 +4064,59 @@
         <v>22.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="K53" s="13"/>
-      <c r="O53" s="14"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="K53" s="14"/>
+      <c r="O53" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3974,931 +4143,931 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="J9" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="I13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>342</v>
+      <c r="J14" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>361</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>343</v>
+        <v>110</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>362</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>344</v>
+        <v>197</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="16">
-      <c r="S16" s="14"/>
+      <c r="S16" s="15"/>
     </row>
     <row r="17">
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
     </row>
     <row r="18">
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
     </row>
     <row r="19">
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
     </row>
     <row r="20">
-      <c r="I20" s="19"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
     </row>
     <row r="21">
-      <c r="I21" s="19"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
     </row>
     <row r="22">
-      <c r="I22" s="19"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
     </row>
     <row r="23">
-      <c r="I23" s="19"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
     </row>
     <row r="24">
-      <c r="I24" s="19"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
     </row>
     <row r="25">
-      <c r="I25" s="19"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
     </row>
     <row r="26">
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
     </row>
     <row r="27">
-      <c r="I27" s="19"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
     </row>
     <row r="28">
-      <c r="I28" s="19"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/src/assets/data/portraits_content.xlsx
+++ b/src/assets/data/portraits_content.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="391">
   <si>
     <t>id</t>
   </si>
@@ -774,6 +774,101 @@
   </si>
   <si>
     <t>M187.75,62.15c17.94-66.3-45-59.24-89.63-61.54C38-4.74,27.07,25.32,23.67,79.23c-5.11,32.15-46.86,77.28-5.72,100.4,13.57,7.64,29.52,7,44.68,6.12,26.72-4,80.56,2.74,99.19-14.46,17.83-18.24,10.91-48.27,14.88-71.51C178.91,86.79,184.32,74.8,187.75,62.15Z</t>
+  </si>
+  <si>
+    <t>strength_logo</t>
+  </si>
+  <si>
+    <t>M282.57,188c-11.74,7.05-18.12,16.18-25.65,27.32-1.49,2.2-3.13,4.42-5.44,5.75s-5.46,1.53-7.49-.19c-2.74-2.33-2.2-6.62-1.41-10.12,2.64-11.83,5.88-23.31,5.76-35.49a100.83,100.83,0,0,0-5.27-30.94c-6.61-19.68-19.21-37.47-36.3-49.38-32-22.29-77.71-22.69-110.09-1S47.35,158.2,55.87,196.26s41.94,69.24,80.49,75.11c9.29,1.41,19.16,1.6,27.23,6.4,16.07,9.55,17.58,32.71,11.73,50.46s-17,33.78-20,52.22c-4.6,28.15,13.21,58.31,40.07,67.88s59.73-2.51,74-27.22c7.55-13.08,8.83-27.81,6.35-42.39-2.33-13.64-8.76-23.1-18.38-33-9.07-9.3-19-19.2-22.08-32.28-.79-3.28-.55-6.95,1.4-9.7s5.87-4.2,8.89-2.7a12.06,12.06,0,0,1,4,3.92c10.29,14,21.81,27.09,38.65,33.37,39,16.48,83.78-.22,104.33-36.71a79.08,79.08,0,0,0,8.91-24.29c7.49-40.3-18.89-84.45-58.21-96.37a76.82,76.82,0,0,0-51.33,2.31A70.79,70.79,0,0,0,282.57,188Z</t>
+  </si>
+  <si>
+    <t>palmares_logo</t>
+  </si>
+  <si>
+    <t>M111.45,64.69a16.85,16.85,0,0,0-2.17,1.08,17.5,17.5,0,0,0-7.27,8c-1.16,2.83-.46,6.39-3.76,7.84-1.67.73-4.35-5-5.3-6a14.15,14.15,0,0,0-9.16-4.08c-6.05-.38-11.23,3.17-14.26,8.2-4.41,7.34-5.53,17.93-2.24,27.05,1.78,4.92,4.79,9.27,3.62,10.26-.66.55-6.74-1.37-7.76-1.56-3.23-.59-6.48-1.1-9.74-1.5a93.24,93.24,0,0,0-20.65-.55c-12.3,1.27-28.14,9.59-24.82,24.37,1.45,6.43,6.58,10.48,11.85,13.87,5.52,3.55,9.62,3.93,9.69,6,.09,2.72-7.3,3.33-14.76,8.32C7,171.16-1.46,181.56.21,190.38c1.46,7.69,9.66,11.66,16.47,13.54,15.6,4.3,32.34,1.47,46.8-5.31,6-2.79,11.92-6,16.71-10.59A24.24,24.24,0,0,0,86,180c1.39-3.3.84-6.79,2.88-9.8,9.4-2.54,19.94-2,26.11-11.28,4.49-7.34,7-14.22-.29-22.2-4.8-3.91-5.33-4.24-1.79-9.54,2-4,1.56-8.37,1.12-12.68-.46-4.6-1.55-6.81-.48-7.6,1.23-.92,6.41,1.47,8.19,1.39a19.21,19.21,0,0,0,10.44-3.66c8.36-6.13,10.92-19.62,6.37-28.73C133.74,66.31,121.62,60.44,111.45,64.69ZM62.16,170.56c7.1-.56,6.15,6.62,1.6,9.86-8.41,8.28-38.2,17.45-48.85,11.47-3.32-3.2.61-8.43,3.42-10.34,3-2.08,6.7-3,10.15-4.11C39.38,173.74,50.58,170.78,62.16,170.56Zm-3-37.42c6.74,1,51.67,9.32,46.9,18.39-5.39,10-53.75-3.5-63.18-7.63-4.79-1.48-16.53-5.42-10.11-11.73C37.36,128.7,52.87,132.74,59.17,133.14ZM92.9,101.36a39.53,39.53,0,0,1,7,15.14c1.33,9.06-7.37,5.09-10.22.33-5-6.83-10.87-15.68-11.34-24.25C80.4,86.38,91.18,98.81,92.9,101.36ZM122.06,81c13.29,7.29,5.78,13.38-5.31,8.38C107.58,84.74,114,76.55,122.06,81Z</t>
+  </si>
+  <si>
+    <t>city_logo</t>
+  </si>
+  <si>
+    <t>M195.41,399.11c51.69-89-71.48-160.19-131-77.51-22.31,26.62-5.06,65.6,31.22,55,18.19-5.71,23.94-27.17,38-38.54,12.93-8.29,22.08,10.27,13.78,20.27-7.29,12.22-20.7,20.5-25.68,33.84-8.29,20.8,10.57,44.58,32.72,41.18C172.88,430.32,185.52,413.7,195.41,399.11Z</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Quel.le </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>sportif.ve</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> es tu?</t>
+    </r>
+  </si>
+  <si>
+    <t>personalitly_logo</t>
+  </si>
+  <si>
+    <t>M293.9,151.74c-2.88-17.18-24.63-27.53-38.62-16-2.95,3-8.86,7.57-12.07,2.53-1.25-3,1.72-4.41,3.92-5.15,15.8-3.7,28-20.35,18.47-35.68-15.3-20.4-40.74-8.06-41.34,15.84-1.87,6.07-9.64,9.12-11.43,1.11C212,102.65,223.3,96.08,216,82.43c-7.06-14.37-27.38-18.15-40-8.85-17.6,12-14.12,41,5.82,48.44,3.53,1.42,7.81,2.48,9.38,6a6.11,6.11,0,0,1-2.87,7.77c-7,2.9-16.56-12.35-31.27-12-20-.48-35.69,21.15-32,40.23,5.62,28.35,40.46,33.94,54.54,8.53,12.15-14.33,22.24-1.49,15.74,12.68-22.8,47.36,48.75,61,54.64,13.42,1-15.67-9.76-20.4-19.78-29.21-6.8-6.11.74-13.93,7-7.72,4.68,8.29,7.13,18.41,16.41,23.21C274.67,198.28,299.17,173.51,293.9,151.74Z</t>
+  </si>
+  <si>
+    <t>failure_logo</t>
+  </si>
+  <si>
+    <t>M366.49,213.44c5.87-12.32-.7-24.83-7.27-35.33-16-25.82-31-53.38-48-78.68a15.82,15.82,0,0,0-24.09,1.81c-6,7.61-6.35,18.81-5.43,28a170.37,170.37,0,0,1-12.35-23.22c-7-15.37-9.36-40.45-30.87-40.81-9.36.82-14.38,8.52-13.54,17.53.85,9.22,6.59,17,9.65,25.6q10.06,22.7,22,44.5c6.17,10,9.72,22.24,19.49,29.38,13.81,9.07,27-2.08,26.33-17.24.3-.54.45-14.1,1.85-11.89,11.88,22.4,20.3,48.83,39.3,66.23C351.47,225,362.84,222.7,366.49,213.44Z</t>
+  </si>
+  <si>
+    <t>introextra_logo</t>
+  </si>
+  <si>
+    <t>M348.9,323.2c-3.47-16.11-11.47-30.3-29.86-21.27-19.57,12.55,0,54.13-29.41,56.46-19.94-4.59-23.08-33.33-27.77-50.2-2.95-13.1-6.15-26.45-13.34-37.79-13.79-24.19-46.38-28.09-62.93-4.68-13.1,16.86-26.18,67.82,7,68.52,22.21-5,11-33.13,23.18-34.69,5.21.16,6.61,6.3,6.73,10.59,1.49,18.9,4.3,38.06,12.6,55.11C268.41,437.45,365,395.85,348.9,323.2Z</t>
+  </si>
+  <si>
+    <t>interest_logo</t>
+  </si>
+  <si>
+    <t>senses_logo</t>
+  </si>
+  <si>
+    <t>M361.11,153.38a14,14,0,0,1,9.65,4.57c4.29,5,3.9,12.69.84,18.5s-8.25,10.12-13.32,14.28L326.91,216.5c-2.59,2.13-5.25,4.34-6.83,7.3s-1.83,6.89.3,9.48,6,3.1,9.17,2.23,6-2.9,8.71-4.77a128.53,128.53,0,0,1,43.13-18.89c6-1.4,12.35-2.35,18.31-.72s11.42,6.4,12.1,12.54c.58,5.15-2.31,10.22-6.31,13.51s-9,5.08-14,6.58A169,169,0,0,1,342.84,251c-4,0-8.24-.11-12,1.51s-6.77,5.56-5.9,9.52c.66,3,3.46,5.25,6.44,6.12s6.17.67,9.27.45l42.59-3c8.44-.6,17.23-1.14,25.07,2.05s14.35,11.34,12.75,19.65c-1.46,7.6-9.19,12.7-16.87,13.66s-15.35-1.31-22.76-3.56L343,285.67c-3-.92-6.18-1.85-9.33-1.46s-6.31,2.49-6.91,5.6c-1,5.19,4.93,8.76,9.86,10.65l45.16,17.39c5.69,2.19,11.53,4.48,15.93,8.7s7,10.9,4.71,16.54-8.55,8.49-14.49,8.47-11.58-2.45-16.9-5.11c-16.28-8.13-31.25-18.64-46-29.28-12.1-8.71-24.33-17.76-32.9-29.95-6.34-9-10.35-20-10-31.07s2.47-17.74,8.36-27.32a422.12,422.12,0,0,1,45.88-61.35c4.54-5,9.4-10.11,15.67-12.68A19.88,19.88,0,0,1,361.11,153.38Z</t>
+  </si>
+  <si>
+    <t>element_logo</t>
+  </si>
+  <si>
+    <t>M83.14,199.1c-9.1,7.76-13.77,19.14-20.56,28.82a78.51,78.51,0,0,1-42.74,30.24c-2.52.7-5.76,2.44-4.91,4.91.71,2,3.52,2.09,5.66,1.83,54.25-9.74,83.64,39.76,120,10.84C190,235.71,135.09,159.38,83.14,199.1Z</t>
+  </si>
+  <si>
+    <t>direction_logo</t>
+  </si>
+  <si>
+    <t>M301.13,263.45c8.11-20.46-49.55-20-61.88-23.46-11.1-.11-14.8-11.34-23.5-16-18-9.54-24.81,2.63-33.71.38-4.14-3.24-3.92-9.6-7.12-13.71a27.68,27.68,0,0,0-26.48-12.92c-9.2,1-39.33,10.89-34.18,23.29,1.48,3.31,5,5.4,8.61,5.85,4.17.52,7.89-.94,11.62-2.57,31.62-13.67,15.07,17.56,44.74,21.54,3.78.58,8,.78,11.55-.44,15.63-4.59,17.25,16.78,44.2,20.45,9.12,2.15,18.49,3,27.82,3.83C273.92,270.53,295.26,275.8,301.13,263.45Z</t>
+  </si>
+  <si>
+    <t>success_logo</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Le cadre du portrait</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>frame_logo</t>
+  </si>
+  <si>
+    <t>#d9ac4f</t>
+  </si>
+  <si>
+    <t>M391.05,250.09c0,24.8.08,49.6,0,74.39a171.61,171.61,0,0,1-26.39,91.81c-17,27.22-40.05,47.79-68.42,62.52a181.22,181.22,0,0,1-52.07,17.48,186.62,186.62,0,0,1-41,2.74c-37.22-1.64-71.15-13-101.37-34.95a168.54,168.54,0,0,1-43.33-45.75A172.22,172.22,0,0,1,30.89,325.2q0-75.46,0-150.92A168.88,168.88,0,0,1,48,100.54,173.94,173.94,0,0,1,60.34,79.11C77.09,54,99.21,35,125.91,21.19A182.33,182.33,0,0,1,176.84,4a188.56,188.56,0,0,1,43-2.81,183.65,183.65,0,0,1,76.51,20.22,176,176,0,0,1,43.35,31.35,163,163,0,0,1,20.35,24.07,174,174,0,0,1,26.25,58.7,176,176,0,0,1,4.2,27.12c.31,4.15.49,8.32.5,12.49Q391.09,212.61,391.05,250.09Z</t>
   </si>
   <si>
     <t>Athlete</t>
@@ -1195,11 +1290,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1241,7 +1336,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1275,21 +1370,20 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1518,6 +1612,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="14.88"/>
     <col customWidth="1" min="5" max="5" width="31.75"/>
     <col customWidth="1" min="6" max="6" width="20.75"/>
     <col customWidth="1" min="7" max="7" width="27.13"/>
@@ -1738,8 +1833,8 @@
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>35</v>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>35</v>
@@ -1794,8 +1889,8 @@
       <c r="J6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>35</v>
+      <c r="K6" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>35</v>
@@ -1906,8 +2001,8 @@
       <c r="J8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>35</v>
+      <c r="K8" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>35</v>
@@ -2118,8 +2213,8 @@
       <c r="J12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>35</v>
+      <c r="K12" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>35</v>
@@ -2330,8 +2425,8 @@
       <c r="J16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>35</v>
+      <c r="K16" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>35</v>
@@ -2533,8 +2628,8 @@
       <c r="J20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>35</v>
+      <c r="K20" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>35</v>
@@ -2952,8 +3047,8 @@
       <c r="J29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>35</v>
+      <c r="K29" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>35</v>
@@ -3110,8 +3205,8 @@
       <c r="J32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>35</v>
+      <c r="K32" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>35</v>
@@ -3261,8 +3356,8 @@
       <c r="J35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>35</v>
+      <c r="K35" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>35</v>
@@ -3473,8 +3568,8 @@
       <c r="J39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>35</v>
+      <c r="K39" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>35</v>
@@ -3720,8 +3815,8 @@
       <c r="J44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>35</v>
+      <c r="K44" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>35</v>
@@ -4112,19 +4207,648 @@
         <v>239</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
     <row r="53">
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="K53" s="14"/>
-      <c r="O53" s="15"/>
+      <c r="A53" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C10"/>
     <hyperlink r:id="rId2" ref="C11"/>
     <hyperlink r:id="rId3" ref="C12"/>
+    <hyperlink r:id="rId4" ref="C55"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4143,19 +4867,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>32</v>
@@ -4198,26 +4922,26 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>245</v>
+      <c r="A2" s="13" t="s">
+        <v>272</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>251</v>
+        <v>276</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>278</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>54</v>
@@ -4225,11 +4949,11 @@
       <c r="I2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>252</v>
+      <c r="J2" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>92</v>
@@ -4237,8 +4961,8 @@
       <c r="M2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N2" s="19" t="s">
-        <v>254</v>
+      <c r="N2" s="17" t="s">
+        <v>281</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>161</v>
@@ -4250,30 +4974,30 @@
         <v>190</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>256</v>
+      <c r="A3" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>261</v>
+        <v>286</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>54</v>
@@ -4281,11 +5005,11 @@
       <c r="I3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>262</v>
+      <c r="J3" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>96</v>
@@ -4293,8 +5017,8 @@
       <c r="M3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="19" t="s">
-        <v>264</v>
+      <c r="N3" s="17" t="s">
+        <v>291</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>161</v>
@@ -4306,30 +5030,30 @@
         <v>190</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>266</v>
+      <c r="A4" s="18" t="s">
+        <v>293</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>270</v>
+        <v>295</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>297</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>54</v>
@@ -4337,11 +5061,11 @@
       <c r="I4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>271</v>
+      <c r="J4" s="16" t="s">
+        <v>298</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>99</v>
@@ -4349,8 +5073,8 @@
       <c r="M4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="19" t="s">
-        <v>273</v>
+      <c r="N4" s="17" t="s">
+        <v>300</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>161</v>
@@ -4362,30 +5086,30 @@
         <v>194</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>275</v>
+      <c r="A5" s="13" t="s">
+        <v>302</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>280</v>
+        <v>305</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>307</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>54</v>
@@ -4393,11 +5117,11 @@
       <c r="I5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>281</v>
+      <c r="J5" s="16" t="s">
+        <v>308</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>99</v>
@@ -4405,8 +5129,8 @@
       <c r="M5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N5" s="19" t="s">
-        <v>283</v>
+      <c r="N5" s="17" t="s">
+        <v>310</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>153</v>
@@ -4418,30 +5142,30 @@
         <v>190</v>
       </c>
       <c r="R5" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>289</v>
+        <v>314</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>316</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>54</v>
@@ -4449,11 +5173,11 @@
       <c r="I6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>290</v>
+      <c r="J6" s="16" t="s">
+        <v>317</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>96</v>
@@ -4461,8 +5185,8 @@
       <c r="M6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="19" t="s">
-        <v>292</v>
+      <c r="N6" s="17" t="s">
+        <v>319</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>157</v>
@@ -4474,30 +5198,30 @@
         <v>190</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
-        <v>294</v>
+      <c r="A7" s="18" t="s">
+        <v>321</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>298</v>
+        <v>323</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>325</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>54</v>
@@ -4505,11 +5229,11 @@
       <c r="I7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>299</v>
+      <c r="J7" s="16" t="s">
+        <v>326</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>96</v>
@@ -4517,8 +5241,8 @@
       <c r="M7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N7" s="19" t="s">
-        <v>301</v>
+      <c r="N7" s="17" t="s">
+        <v>328</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>157</v>
@@ -4530,30 +5254,30 @@
         <v>190</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="s">
-        <v>303</v>
+      <c r="A8" s="13" t="s">
+        <v>330</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>307</v>
+        <v>332</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>58</v>
@@ -4561,11 +5285,11 @@
       <c r="I8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>308</v>
+      <c r="J8" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>96</v>
@@ -4573,8 +5297,8 @@
       <c r="M8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N8" s="19" t="s">
-        <v>310</v>
+      <c r="N8" s="17" t="s">
+        <v>337</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>161</v>
@@ -4586,30 +5310,30 @@
         <v>197</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
-        <v>312</v>
+      <c r="A9" s="18" t="s">
+        <v>339</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>316</v>
+        <v>341</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>49</v>
@@ -4617,11 +5341,11 @@
       <c r="I9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>252</v>
+      <c r="J9" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>96</v>
@@ -4629,8 +5353,8 @@
       <c r="M9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>318</v>
+      <c r="N9" s="17" t="s">
+        <v>345</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>153</v>
@@ -4642,30 +5366,30 @@
         <v>190</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
-        <v>320</v>
+      <c r="A10" s="18" t="s">
+        <v>347</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>324</v>
+        <v>349</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>351</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>58</v>
@@ -4673,11 +5397,11 @@
       <c r="I10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>325</v>
+      <c r="J10" s="16" t="s">
+        <v>352</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>96</v>
@@ -4685,8 +5409,8 @@
       <c r="M10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N10" s="19" t="s">
-        <v>327</v>
+      <c r="N10" s="17" t="s">
+        <v>354</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>161</v>
@@ -4698,30 +5422,30 @@
         <v>190</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>329</v>
+      <c r="A11" s="18" t="s">
+        <v>356</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>333</v>
+        <v>358</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>360</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>58</v>
@@ -4729,11 +5453,11 @@
       <c r="I11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>334</v>
+      <c r="J11" s="16" t="s">
+        <v>361</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>96</v>
@@ -4741,8 +5465,8 @@
       <c r="M11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N11" s="19" t="s">
-        <v>336</v>
+      <c r="N11" s="17" t="s">
+        <v>363</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>157</v>
@@ -4754,30 +5478,30 @@
         <v>190</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="s">
-        <v>338</v>
+      <c r="A12" s="13" t="s">
+        <v>365</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>342</v>
+        <v>367</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>58</v>
@@ -4785,11 +5509,11 @@
       <c r="I12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>252</v>
+      <c r="J12" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>99</v>
@@ -4797,8 +5521,8 @@
       <c r="M12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N12" s="19" t="s">
-        <v>344</v>
+      <c r="N12" s="17" t="s">
+        <v>371</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>157</v>
@@ -4810,30 +5534,30 @@
         <v>190</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
-        <v>346</v>
+      <c r="A13" s="18" t="s">
+        <v>373</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>350</v>
+        <v>375</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>377</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>49</v>
@@ -4841,11 +5565,11 @@
       <c r="I13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>351</v>
+      <c r="J13" s="16" t="s">
+        <v>378</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>92</v>
@@ -4853,8 +5577,8 @@
       <c r="M13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N13" s="19" t="s">
-        <v>353</v>
+      <c r="N13" s="17" t="s">
+        <v>380</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>161</v>
@@ -4866,30 +5590,30 @@
         <v>194</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="s">
-        <v>355</v>
+      <c r="A14" s="13" t="s">
+        <v>382</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>359</v>
+        <v>384</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>386</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>58</v>
@@ -4897,11 +5621,11 @@
       <c r="I14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="14" t="s">
-        <v>360</v>
+      <c r="J14" s="16" t="s">
+        <v>387</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>96</v>
@@ -4909,8 +5633,8 @@
       <c r="M14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N14" s="19" t="s">
-        <v>362</v>
+      <c r="N14" s="17" t="s">
+        <v>389</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>157</v>
@@ -4922,152 +5646,152 @@
         <v>197</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16">
-      <c r="S16" s="15"/>
+      <c r="S16" s="18"/>
     </row>
     <row r="17">
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
     </row>
     <row r="18">
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
     </row>
     <row r="19">
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
     </row>
     <row r="20">
-      <c r="I20" s="20"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
     </row>
     <row r="21">
-      <c r="I21" s="20"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
     </row>
     <row r="22">
-      <c r="I22" s="20"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
     </row>
     <row r="23">
-      <c r="I23" s="20"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
     </row>
     <row r="24">
-      <c r="I24" s="20"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
     </row>
     <row r="25">
-      <c r="I25" s="20"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
     </row>
     <row r="26">
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
     </row>
     <row r="27">
-      <c r="I27" s="20"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
     </row>
     <row r="28">
-      <c r="I28" s="20"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
